--- a/FA-like_protein_infos.xlsx
+++ b/FA-like_protein_infos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20307" uniqueCount="7645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20308" uniqueCount="7645">
   <si>
     <t>UniProt ID</t>
   </si>
@@ -86668,6 +86668,9 @@
       <c r="E3168" t="s">
         <v>7380</v>
       </c>
+      <c r="F3168" t="s">
+        <v>7432</v>
+      </c>
     </row>
     <row r="3169" spans="1:6">
       <c r="A3169" t="s">
